--- a/LOGS/ee28273f-763a-4806-85e9-90d78e717975/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/ee28273f-763a-4806-85e9-90d78e717975/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -31,18 +31,17 @@
     <sheet name="26__fbd390e7-20b7-3f" sheetId="22" r:id="rId22"/>
     <sheet name="26__fd32b450-dd14-34" sheetId="23" r:id="rId23"/>
     <sheet name="27__ad70d8e4-65c2-37" sheetId="24" r:id="rId24"/>
-    <sheet name="5__264918a9-ada8-3ad" sheetId="25" r:id="rId25"/>
-    <sheet name="7__2b6c970d-d737-3d6" sheetId="26" r:id="rId26"/>
-    <sheet name="8__2b6c970d-d737-3d6" sheetId="27" r:id="rId27"/>
-    <sheet name="9__2b6c970d-d737-3d6" sheetId="28" r:id="rId28"/>
-    <sheet name="9__d8765e27-2250-395" sheetId="29" r:id="rId29"/>
+    <sheet name="7__2b6c970d-d737-3d6" sheetId="25" r:id="rId25"/>
+    <sheet name="8__2b6c970d-d737-3d6" sheetId="26" r:id="rId26"/>
+    <sheet name="9__2b6c970d-d737-3d6" sheetId="27" r:id="rId27"/>
+    <sheet name="9__d8765e27-2250-395" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="115">
   <si>
     <t>line_item_0</t>
   </si>
@@ -375,15 +374,6 @@
   </si>
   <si>
     <t>Adjusted franking account balance</t>
-  </si>
-  <si>
-    <t>Crane sales</t>
-  </si>
-  <si>
-    <t>After service and parts sales</t>
-  </si>
-  <si>
-    <t>Total Revenue</t>
   </si>
   <si>
     <t>7. Other gains and losses</t>
@@ -3702,141 +3692,6 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2">
-        <v>128008786</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3">
-        <v>16051994</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4">
-        <v>144417994</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5">
-        <v>146106970</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6">
-        <v>13700633</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7">
-        <v>160803224</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3862,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3870,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3878,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3886,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3894,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3902,7 +3757,7 @@
         <v>-464932</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3910,7 +3765,7 @@
         <v>7825</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3918,7 +3773,7 @@
         <v>416012</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3926,7 +3781,7 @@
         <v>-41095</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3934,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3942,7 +3797,7 @@
         <v>-142731</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3950,7 +3805,7 @@
         <v>13507</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3958,7 +3813,7 @@
         <v>-91759</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3966,7 +3821,7 @@
         <v>-220983</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3974,7 +3829,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3994,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -4027,7 +3882,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4038,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4049,7 +3904,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4060,7 +3915,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4071,7 +3926,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4082,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4093,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4104,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4115,7 +3970,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4126,7 +3981,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4137,7 +3992,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4148,7 +4003,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -4183,7 +4038,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>383044</v>
@@ -4197,7 +4052,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>166547</v>
@@ -4222,7 +4077,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>297223</v>
@@ -4236,7 +4091,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>188127</v>
